--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Efnb2-Ephb3.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Efnb2-Ephb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.7529937338359</v>
+        <v>28.95628266666667</v>
       </c>
       <c r="H2">
-        <v>12.7529937338359</v>
+        <v>86.868848</v>
       </c>
       <c r="I2">
-        <v>0.3506863951215083</v>
+        <v>0.5491054194301004</v>
       </c>
       <c r="J2">
-        <v>0.3506863951215083</v>
+        <v>0.5491054194301005</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>17.1803172271836</v>
+        <v>0.143611</v>
       </c>
       <c r="N2">
-        <v>17.1803172271836</v>
+        <v>0.430833</v>
       </c>
       <c r="O2">
-        <v>0.8289176599706376</v>
+        <v>0.006856337892517759</v>
       </c>
       <c r="P2">
-        <v>0.8289176599706376</v>
+        <v>0.006856337892517758</v>
       </c>
       <c r="Q2">
-        <v>219.1004779435854</v>
+        <v>4.158440710042667</v>
       </c>
       <c r="R2">
-        <v>219.1004779435854</v>
+        <v>37.425966390384</v>
       </c>
       <c r="S2">
-        <v>0.2906901460276591</v>
+        <v>0.003764852294225455</v>
       </c>
       <c r="T2">
-        <v>0.2906901460276591</v>
+        <v>0.003764852294225455</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.7529937338359</v>
+        <v>28.95628266666667</v>
       </c>
       <c r="H3">
-        <v>12.7529937338359</v>
+        <v>86.868848</v>
       </c>
       <c r="I3">
-        <v>0.3506863951215083</v>
+        <v>0.5491054194301004</v>
       </c>
       <c r="J3">
-        <v>0.3506863951215083</v>
+        <v>0.5491054194301005</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.54588762625404</v>
+        <v>17.192962</v>
       </c>
       <c r="N3">
-        <v>3.54588762625404</v>
+        <v>51.578886</v>
       </c>
       <c r="O3">
-        <v>0.1710823400293624</v>
+        <v>0.8208337581746376</v>
       </c>
       <c r="P3">
-        <v>0.1710823400293624</v>
+        <v>0.8208337581746377</v>
       </c>
       <c r="Q3">
-        <v>45.22068267850403</v>
+        <v>497.8442675492586</v>
       </c>
       <c r="R3">
-        <v>45.22068267850403</v>
+        <v>4480.598407943327</v>
       </c>
       <c r="S3">
-        <v>0.05999624909384924</v>
+        <v>0.45072426506487</v>
       </c>
       <c r="T3">
-        <v>0.05999624909384924</v>
+        <v>0.4507242650648701</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,55 +652,55 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.6827628451534</v>
+        <v>28.95628266666667</v>
       </c>
       <c r="H4">
-        <v>12.6827628451534</v>
+        <v>86.868848</v>
       </c>
       <c r="I4">
-        <v>0.3487551609585917</v>
+        <v>0.5491054194301004</v>
       </c>
       <c r="J4">
-        <v>0.3487551609585917</v>
+        <v>0.5491054194301005</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.1803172271836</v>
+        <v>3.609156666666667</v>
       </c>
       <c r="N4">
-        <v>17.1803172271836</v>
+        <v>10.82747</v>
       </c>
       <c r="O4">
-        <v>0.8289176599706376</v>
+        <v>0.1723099039328446</v>
       </c>
       <c r="P4">
-        <v>0.8289176599706376</v>
+        <v>0.1723099039328446</v>
       </c>
       <c r="Q4">
-        <v>217.893888996873</v>
+        <v>104.5077606282844</v>
       </c>
       <c r="R4">
-        <v>217.893888996873</v>
+        <v>940.56984565456</v>
       </c>
       <c r="S4">
-        <v>0.2890893119244789</v>
+        <v>0.09461630207100495</v>
       </c>
       <c r="T4">
-        <v>0.2890893119244789</v>
+        <v>0.09461630207100497</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,60 +714,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.6827628451534</v>
+        <v>12.691493</v>
       </c>
       <c r="H5">
-        <v>12.6827628451534</v>
+        <v>38.074479</v>
       </c>
       <c r="I5">
-        <v>0.3487551609585917</v>
+        <v>0.2406720388519202</v>
       </c>
       <c r="J5">
-        <v>0.3487551609585917</v>
+        <v>0.2406720388519202</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>3.54588762625404</v>
+        <v>0.143611</v>
       </c>
       <c r="N5">
-        <v>3.54588762625404</v>
+        <v>0.430833</v>
       </c>
       <c r="O5">
-        <v>0.1710823400293624</v>
+        <v>0.006856337892517759</v>
       </c>
       <c r="P5">
-        <v>0.1710823400293624</v>
+        <v>0.006856337892517758</v>
       </c>
       <c r="Q5">
-        <v>44.97165183934393</v>
+        <v>1.822638001223</v>
       </c>
       <c r="R5">
-        <v>44.97165183934393</v>
+        <v>16.403742011007</v>
       </c>
       <c r="S5">
-        <v>0.05966584903411281</v>
+        <v>0.001650128819649927</v>
       </c>
       <c r="T5">
-        <v>0.05966584903411281</v>
+        <v>0.001650128819649926</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -779,57 +779,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.350677823994581</v>
+        <v>12.691493</v>
       </c>
       <c r="H6">
-        <v>0.350677823994581</v>
+        <v>38.074479</v>
       </c>
       <c r="I6">
-        <v>0.009643064562905933</v>
+        <v>0.2406720388519202</v>
       </c>
       <c r="J6">
-        <v>0.009643064562905933</v>
+        <v>0.2406720388519202</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.1803172271836</v>
+        <v>17.192962</v>
       </c>
       <c r="N6">
-        <v>17.1803172271836</v>
+        <v>51.578886</v>
       </c>
       <c r="O6">
-        <v>0.8289176599706376</v>
+        <v>0.8208337581746376</v>
       </c>
       <c r="P6">
-        <v>0.8289176599706376</v>
+        <v>0.8208337581746377</v>
       </c>
       <c r="Q6">
-        <v>6.024756260765358</v>
+        <v>218.204356872266</v>
       </c>
       <c r="R6">
-        <v>6.024756260765358</v>
+        <v>1963.839211850394</v>
       </c>
       <c r="S6">
-        <v>0.007993306512429766</v>
+        <v>0.197551734138374</v>
       </c>
       <c r="T6">
-        <v>0.007993306512429766</v>
+        <v>0.197551734138374</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -841,57 +841,57 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.350677823994581</v>
+        <v>12.691493</v>
       </c>
       <c r="H7">
-        <v>0.350677823994581</v>
+        <v>38.074479</v>
       </c>
       <c r="I7">
-        <v>0.009643064562905933</v>
+        <v>0.2406720388519202</v>
       </c>
       <c r="J7">
-        <v>0.009643064562905933</v>
+        <v>0.2406720388519202</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.54588762625404</v>
+        <v>3.609156666666667</v>
       </c>
       <c r="N7">
-        <v>3.54588762625404</v>
+        <v>10.82747</v>
       </c>
       <c r="O7">
-        <v>0.1710823400293624</v>
+        <v>0.1723099039328446</v>
       </c>
       <c r="P7">
-        <v>0.1710823400293624</v>
+        <v>0.1723099039328446</v>
       </c>
       <c r="Q7">
-        <v>1.243464156904077</v>
+        <v>45.80558657090333</v>
       </c>
       <c r="R7">
-        <v>1.243464156904077</v>
+        <v>412.2502791381299</v>
       </c>
       <c r="S7">
-        <v>0.001649758050476168</v>
+        <v>0.04147017589389621</v>
       </c>
       <c r="T7">
-        <v>0.001649758050476168</v>
+        <v>0.04147017589389621</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.5793725152376</v>
+        <v>0.4888703333333334</v>
       </c>
       <c r="H8">
-        <v>10.5793725152376</v>
+        <v>1.466611</v>
       </c>
       <c r="I8">
-        <v>0.290915379356994</v>
+        <v>0.009270573592685367</v>
       </c>
       <c r="J8">
-        <v>0.290915379356994</v>
+        <v>0.009270573592685367</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>17.1803172271836</v>
+        <v>0.143611</v>
       </c>
       <c r="N8">
-        <v>17.1803172271836</v>
+        <v>0.430833</v>
       </c>
       <c r="O8">
-        <v>0.8289176599706376</v>
+        <v>0.006856337892517759</v>
       </c>
       <c r="P8">
-        <v>0.8289176599706376</v>
+        <v>0.006856337892517758</v>
       </c>
       <c r="Q8">
-        <v>181.7569758763292</v>
+        <v>0.07020715744033335</v>
       </c>
       <c r="R8">
-        <v>181.7569758763292</v>
+        <v>0.6318644169630001</v>
       </c>
       <c r="S8">
-        <v>0.2411448955060698</v>
+        <v>6.356218500890318E-05</v>
       </c>
       <c r="T8">
-        <v>0.2411448955060698</v>
+        <v>6.356218500890318E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,303 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.4888703333333334</v>
+      </c>
+      <c r="H9">
+        <v>1.466611</v>
+      </c>
+      <c r="I9">
+        <v>0.009270573592685367</v>
+      </c>
+      <c r="J9">
+        <v>0.009270573592685367</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>17.192962</v>
+      </c>
+      <c r="N9">
+        <v>51.578886</v>
+      </c>
+      <c r="O9">
+        <v>0.8208337581746376</v>
+      </c>
+      <c r="P9">
+        <v>0.8208337581746377</v>
+      </c>
+      <c r="Q9">
+        <v>8.405129063927333</v>
+      </c>
+      <c r="R9">
+        <v>75.646161575346</v>
+      </c>
+      <c r="S9">
+        <v>0.007609599762518481</v>
+      </c>
+      <c r="T9">
+        <v>0.007609599762518482</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>10.5793725152376</v>
-      </c>
-      <c r="H9">
-        <v>10.5793725152376</v>
-      </c>
-      <c r="I9">
-        <v>0.290915379356994</v>
-      </c>
-      <c r="J9">
-        <v>0.290915379356994</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>3.54588762625404</v>
-      </c>
-      <c r="N9">
-        <v>3.54588762625404</v>
-      </c>
-      <c r="O9">
-        <v>0.1710823400293624</v>
-      </c>
-      <c r="P9">
-        <v>0.1710823400293624</v>
-      </c>
-      <c r="Q9">
-        <v>37.51326609531309</v>
-      </c>
-      <c r="R9">
-        <v>37.51326609531309</v>
-      </c>
-      <c r="S9">
-        <v>0.04977048385092422</v>
-      </c>
-      <c r="T9">
-        <v>0.04977048385092422</v>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.4888703333333334</v>
+      </c>
+      <c r="H10">
+        <v>1.466611</v>
+      </c>
+      <c r="I10">
+        <v>0.009270573592685367</v>
+      </c>
+      <c r="J10">
+        <v>0.009270573592685367</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.609156666666667</v>
+      </c>
+      <c r="N10">
+        <v>10.82747</v>
+      </c>
+      <c r="O10">
+        <v>0.1723099039328446</v>
+      </c>
+      <c r="P10">
+        <v>0.1723099039328446</v>
+      </c>
+      <c r="Q10">
+        <v>1.764409622685556</v>
+      </c>
+      <c r="R10">
+        <v>15.87968660417</v>
+      </c>
+      <c r="S10">
+        <v>0.001597411645157982</v>
+      </c>
+      <c r="T10">
+        <v>0.001597411645157982</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>10.59691233333333</v>
+      </c>
+      <c r="H11">
+        <v>31.790737</v>
+      </c>
+      <c r="I11">
+        <v>0.200951968125294</v>
+      </c>
+      <c r="J11">
+        <v>0.200951968125294</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.143611</v>
+      </c>
+      <c r="N11">
+        <v>0.430833</v>
+      </c>
+      <c r="O11">
+        <v>0.006856337892517759</v>
+      </c>
+      <c r="P11">
+        <v>0.006856337892517758</v>
+      </c>
+      <c r="Q11">
+        <v>1.521833177102334</v>
+      </c>
+      <c r="R11">
+        <v>13.696498593921</v>
+      </c>
+      <c r="S11">
+        <v>0.001377794593633474</v>
+      </c>
+      <c r="T11">
+        <v>0.001377794593633474</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>10.59691233333333</v>
+      </c>
+      <c r="H12">
+        <v>31.790737</v>
+      </c>
+      <c r="I12">
+        <v>0.200951968125294</v>
+      </c>
+      <c r="J12">
+        <v>0.200951968125294</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>17.192962</v>
+      </c>
+      <c r="N12">
+        <v>51.578886</v>
+      </c>
+      <c r="O12">
+        <v>0.8208337581746376</v>
+      </c>
+      <c r="P12">
+        <v>0.8208337581746377</v>
+      </c>
+      <c r="Q12">
+        <v>182.1923110643313</v>
+      </c>
+      <c r="R12">
+        <v>1639.730799578982</v>
+      </c>
+      <c r="S12">
+        <v>0.1649481592088751</v>
+      </c>
+      <c r="T12">
+        <v>0.1649481592088751</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>10.59691233333333</v>
+      </c>
+      <c r="H13">
+        <v>31.790737</v>
+      </c>
+      <c r="I13">
+        <v>0.200951968125294</v>
+      </c>
+      <c r="J13">
+        <v>0.200951968125294</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.609156666666667</v>
+      </c>
+      <c r="N13">
+        <v>10.82747</v>
+      </c>
+      <c r="O13">
+        <v>0.1723099039328446</v>
+      </c>
+      <c r="P13">
+        <v>0.1723099039328446</v>
+      </c>
+      <c r="Q13">
+        <v>38.24591679393222</v>
+      </c>
+      <c r="R13">
+        <v>344.21325114539</v>
+      </c>
+      <c r="S13">
+        <v>0.03462601432278547</v>
+      </c>
+      <c r="T13">
+        <v>0.03462601432278547</v>
       </c>
     </row>
   </sheetData>
